--- a/docs/CareConnect-ProcedureRequest-1.xlsx
+++ b/docs/CareConnect-ProcedureRequest-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="543">
   <si>
     <t>Path</t>
   </si>
@@ -900,6 +900,12 @@
 </t>
   </si>
   <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
+  </si>
+  <si>
     <t>ProcedureRequest.category.coding.system</t>
   </si>
   <si>
@@ -1567,7 +1573,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1 </t>
+    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>ProcedureRequest.bodySite.coding.id</t>
@@ -1874,7 +1880,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="122.203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.50390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -6712,10 +6718,10 @@
         <v>283</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6787,7 +6793,7 @@
         <v>44</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>44</v>
@@ -6798,7 +6804,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6824,23 +6830,23 @@
         <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>44</v>
@@ -6882,7 +6888,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6900,10 +6906,10 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>44</v>
@@ -6914,7 +6920,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6940,13 +6946,13 @@
         <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6996,7 +7002,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -7014,10 +7020,10 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -7028,7 +7034,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7054,14 +7060,14 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
@@ -7110,7 +7116,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7128,10 +7134,10 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
@@ -7142,7 +7148,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7168,14 +7174,14 @@
         <v>119</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -7224,7 +7230,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7242,10 +7248,10 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>44</v>
@@ -7256,7 +7262,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7282,16 +7288,16 @@
         <v>249</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -7340,7 +7346,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7358,10 +7364,10 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>44</v>
@@ -7372,7 +7378,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7398,16 +7404,16 @@
         <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -7456,7 +7462,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7474,10 +7480,10 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -7488,7 +7494,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7514,13 +7520,13 @@
         <v>141</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7549,7 +7555,7 @@
         <v>261</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Y50" t="s" s="2">
         <v>44</v>
@@ -7570,7 +7576,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>53</v>
@@ -7585,24 +7591,24 @@
         <v>44</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>187</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7714,7 +7720,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7828,7 +7834,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7942,7 +7948,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>277</v>
@@ -8060,7 +8066,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8172,7 +8178,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8284,7 +8290,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>282</v>
@@ -8312,10 +8318,10 @@
         <v>283</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8387,7 +8393,7 @@
         <v>44</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>44</v>
@@ -8398,7 +8404,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8424,23 +8430,23 @@
         <v>66</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>44</v>
@@ -8482,7 +8488,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8500,10 +8506,10 @@
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>44</v>
@@ -8514,7 +8520,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8540,13 +8546,13 @@
         <v>119</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8596,7 +8602,7 @@
         <v>44</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
@@ -8614,10 +8620,10 @@
         <v>44</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>44</v>
@@ -8628,7 +8634,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8654,14 +8660,14 @@
         <v>72</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>44</v>
@@ -8710,7 +8716,7 @@
         <v>44</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8728,10 +8734,10 @@
         <v>44</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>44</v>
@@ -8742,7 +8748,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8768,14 +8774,14 @@
         <v>119</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>44</v>
@@ -8824,7 +8830,7 @@
         <v>44</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8842,10 +8848,10 @@
         <v>44</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>44</v>
@@ -8856,7 +8862,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8882,16 +8888,16 @@
         <v>249</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>44</v>
@@ -8940,7 +8946,7 @@
         <v>44</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8958,10 +8964,10 @@
         <v>44</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>44</v>
@@ -8972,7 +8978,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8998,16 +9004,16 @@
         <v>119</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>44</v>
@@ -9056,7 +9062,7 @@
         <v>44</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -9074,10 +9080,10 @@
         <v>44</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>44</v>
@@ -9088,7 +9094,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9111,13 +9117,13 @@
         <v>54</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9168,7 +9174,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>53</v>
@@ -9183,28 +9189,28 @@
         <v>44</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9223,13 +9229,13 @@
         <v>54</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9280,7 +9286,7 @@
         <v>44</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9295,28 +9301,28 @@
         <v>44</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9335,13 +9341,13 @@
         <v>54</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9392,7 +9398,7 @@
         <v>44</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9407,24 +9413,24 @@
         <v>44</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9447,13 +9453,13 @@
         <v>54</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9483,10 +9489,10 @@
         <v>261</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>44</v>
@@ -9504,7 +9510,7 @@
         <v>44</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9525,22 +9531,22 @@
         <v>44</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9559,13 +9565,13 @@
         <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9616,7 +9622,7 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9631,28 +9637,28 @@
         <v>44</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9671,16 +9677,16 @@
         <v>54</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9730,7 +9736,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9742,27 +9748,27 @@
         <v>44</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9874,7 +9880,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9988,11 +9994,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -10017,7 +10023,7 @@
         <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>102</v>
@@ -10070,7 +10076,7 @@
         <v>44</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
@@ -10102,7 +10108,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10125,13 +10131,13 @@
         <v>54</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10182,7 +10188,7 @@
         <v>44</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>53</v>
@@ -10197,24 +10203,24 @@
         <v>44</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10240,14 +10246,14 @@
         <v>174</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>44</v>
@@ -10296,7 +10302,7 @@
         <v>44</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
@@ -10311,13 +10317,13 @@
         <v>44</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>44</v>
@@ -10328,7 +10334,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10354,13 +10360,13 @@
         <v>141</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -10389,10 +10395,10 @@
         <v>261</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>44</v>
@@ -10410,7 +10416,7 @@
         <v>44</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>42</v>
@@ -10425,16 +10431,16 @@
         <v>44</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>44</v>
@@ -10442,7 +10448,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10465,16 +10471,16 @@
         <v>54</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10524,7 +10530,7 @@
         <v>44</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>42</v>
@@ -10539,16 +10545,16 @@
         <v>44</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>44</v>
@@ -10556,7 +10562,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10582,13 +10588,13 @@
         <v>141</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10617,10 +10623,10 @@
         <v>261</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>44</v>
@@ -10638,7 +10644,7 @@
         <v>44</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>42</v>
@@ -10653,16 +10659,16 @@
         <v>44</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>44</v>
@@ -10670,7 +10676,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10782,7 +10788,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10896,7 +10902,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11010,7 +11016,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>277</v>
@@ -11128,7 +11134,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11240,7 +11246,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11352,7 +11358,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>282</v>
@@ -11380,10 +11386,10 @@
         <v>283</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11455,7 +11461,7 @@
         <v>44</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>44</v>
@@ -11466,7 +11472,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11492,23 +11498,23 @@
         <v>66</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P85" s="2"/>
       <c r="Q85" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R85" t="s" s="2">
         <v>44</v>
@@ -11550,7 +11556,7 @@
         <v>44</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11568,10 +11574,10 @@
         <v>44</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>44</v>
@@ -11582,7 +11588,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11608,13 +11614,13 @@
         <v>119</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -11664,7 +11670,7 @@
         <v>44</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11682,10 +11688,10 @@
         <v>44</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>44</v>
@@ -11696,7 +11702,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11722,14 +11728,14 @@
         <v>72</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>44</v>
@@ -11778,7 +11784,7 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11796,10 +11802,10 @@
         <v>44</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>44</v>
@@ -11810,7 +11816,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11836,14 +11842,14 @@
         <v>119</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>44</v>
@@ -11892,7 +11898,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11910,10 +11916,10 @@
         <v>44</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>44</v>
@@ -11924,7 +11930,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11950,16 +11956,16 @@
         <v>249</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>44</v>
@@ -12008,7 +12014,7 @@
         <v>44</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
@@ -12026,10 +12032,10 @@
         <v>44</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>44</v>
@@ -12040,7 +12046,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12066,16 +12072,16 @@
         <v>119</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>44</v>
@@ -12124,7 +12130,7 @@
         <v>44</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12142,10 +12148,10 @@
         <v>44</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>44</v>
@@ -12156,7 +12162,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12179,16 +12185,16 @@
         <v>54</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -12238,7 +12244,7 @@
         <v>44</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
@@ -12253,16 +12259,16 @@
         <v>44</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>44</v>
@@ -12270,11 +12276,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -12293,13 +12299,13 @@
         <v>44</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12350,7 +12356,7 @@
         <v>44</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>42</v>
@@ -12365,13 +12371,13 @@
         <v>44</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>44</v>
@@ -12382,7 +12388,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12405,16 +12411,16 @@
         <v>54</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -12464,7 +12470,7 @@
         <v>44</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
@@ -12482,10 +12488,10 @@
         <v>44</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>44</v>
@@ -12496,11 +12502,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12522,16 +12528,16 @@
         <v>141</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>44</v>
@@ -12559,10 +12565,10 @@
         <v>261</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>44</v>
@@ -12580,7 +12586,7 @@
         <v>44</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
@@ -12598,21 +12604,21 @@
         <v>44</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12724,7 +12730,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12838,7 +12844,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12952,7 +12958,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>277</v>
@@ -13014,13 +13020,13 @@
         <v>44</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>44</v>
@@ -13070,7 +13076,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13182,7 +13188,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13294,7 +13300,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>282</v>
@@ -13322,10 +13328,10 @@
         <v>283</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13397,7 +13403,7 @@
         <v>44</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>44</v>
@@ -13408,7 +13414,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13434,23 +13440,23 @@
         <v>66</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P102" s="2"/>
       <c r="Q102" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R102" t="s" s="2">
         <v>44</v>
@@ -13492,7 +13498,7 @@
         <v>44</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>42</v>
@@ -13510,10 +13516,10 @@
         <v>44</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>44</v>
@@ -13524,7 +13530,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13550,13 +13556,13 @@
         <v>119</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13606,7 +13612,7 @@
         <v>44</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>42</v>
@@ -13624,10 +13630,10 @@
         <v>44</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>44</v>
@@ -13638,7 +13644,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13664,14 +13670,14 @@
         <v>72</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>44</v>
@@ -13720,7 +13726,7 @@
         <v>44</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>42</v>
@@ -13738,10 +13744,10 @@
         <v>44</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>44</v>
@@ -13752,7 +13758,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13778,14 +13784,14 @@
         <v>119</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>44</v>
@@ -13834,7 +13840,7 @@
         <v>44</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>42</v>
@@ -13852,10 +13858,10 @@
         <v>44</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>44</v>
@@ -13866,7 +13872,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13892,16 +13898,16 @@
         <v>249</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>44</v>
@@ -13950,7 +13956,7 @@
         <v>44</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>42</v>
@@ -13968,10 +13974,10 @@
         <v>44</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>44</v>
@@ -13982,7 +13988,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14008,16 +14014,16 @@
         <v>119</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>44</v>
@@ -14066,7 +14072,7 @@
         <v>44</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>42</v>
@@ -14084,10 +14090,10 @@
         <v>44</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>44</v>
@@ -14098,7 +14104,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14121,13 +14127,13 @@
         <v>44</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>12</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14178,7 +14184,7 @@
         <v>44</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>42</v>
@@ -14193,24 +14199,24 @@
         <v>44</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14322,7 +14328,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14436,7 +14442,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14459,13 +14465,13 @@
         <v>54</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14516,7 +14522,7 @@
         <v>44</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14537,7 +14543,7 @@
         <v>96</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>44</v>
@@ -14548,7 +14554,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14571,13 +14577,13 @@
         <v>54</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -14628,7 +14634,7 @@
         <v>44</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>42</v>
@@ -14649,7 +14655,7 @@
         <v>96</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>44</v>
@@ -14660,7 +14666,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14686,10 +14692,10 @@
         <v>119</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -14740,7 +14746,7 @@
         <v>44</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>53</v>
@@ -14761,7 +14767,7 @@
         <v>96</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>44</v>
@@ -14772,7 +14778,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14795,16 +14801,16 @@
         <v>44</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14854,7 +14860,7 @@
         <v>44</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>42</v>
@@ -14869,13 +14875,13 @@
         <v>44</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>44</v>

--- a/docs/CareConnect-ProcedureRequest-1.xlsx
+++ b/docs/CareConnect-ProcedureRequest-1.xlsx
@@ -1860,13 +1860,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1877,25 +1877,25 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="122.203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.50390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.19921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.25" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="50.38671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="158.2265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.36328125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/CareConnect-ProcedureRequest-1.xlsx
+++ b/docs/CareConnect-ProcedureRequest-1.xlsx
@@ -1860,13 +1860,13 @@
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1877,25 +1877,25 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="122.19921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.5" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="122.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.50390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.25" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="50.38671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="158.2265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="59.3671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="59.36328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
